--- a/RoadMap.xlsx
+++ b/RoadMap.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohit\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohit\Documents\GitHub\Learning-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91705810-AE59-4421-BE03-37579917164B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26625740-1385-473C-89AF-79678DA9D9CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D6440990-AA0E-42F3-AE3A-2741EAE7F79A}"/>
   </bookViews>
@@ -165,12 +165,9 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -178,16 +175,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -507,218 +507,223 @@
   <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="F1" s="3" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="F1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="X2" s="6" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="X2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="X3" s="6" t="s">
+      <c r="X3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
       <c r="E7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
       <c r="E14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
       <c r="E22" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
       <c r="E23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
       <c r="E24" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
       <c r="E25" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
       <c r="E26" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
       <c r="E27" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A17:C18"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="F1:R2"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A20:C20"/>
@@ -731,11 +736,6 @@
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A17:C18"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="F1:R2"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E14 E22:E27" xr:uid="{D91C5893-1616-48BC-BE43-471019E0FE96}">
